--- a/biology/Botanique/Convolvulus_althaeoides/Convolvulus_althaeoides.xlsx
+++ b/biology/Botanique/Convolvulus_althaeoides/Convolvulus_althaeoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le liseron fausse-guimauve ou liseron de Provence, Convolvulus althaeoides, est une plante de la famille des Convolvulacées.
 C'est une plante rampante ou volubile, poilue. Les feuilles sont pétiolées, les inférieures légèrement crénelées, les supérieures lobées.
@@ -514,9 +526,11 @@
           <t>Sous espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Convolvulus elegantissimus est considérée comme une sous-espèce de Convolvulus althaeoides. elle s'en distingue par le cœur blanc de sa corolle et ses feuilles profondément palmatiséquées à 5, 7 ou 9 lobes[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Convolvulus elegantissimus est considérée comme une sous-espèce de Convolvulus althaeoides. elle s'en distingue par le cœur blanc de sa corolle et ses feuilles profondément palmatiséquées à 5, 7 ou 9 lobes.
 </t>
         </is>
       </c>
